--- a/Configs/LevelConfig.xlsx
+++ b/Configs/LevelConfig.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9947"/>
+    <workbookView windowWidth="16680" windowHeight="8172"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,13 +110,13 @@
     <t>float[]</t>
   </si>
   <si>
-    <t>lv1</t>
+    <t>第一关</t>
   </si>
   <si>
     <t>冰箱</t>
   </si>
   <si>
-    <t>lv2</t>
+    <t>第二关</t>
   </si>
   <si>
     <t>冰箱,智能垃圾桶,扫地机器人</t>
@@ -130,7 +143,7 @@
     <t>100,100,100</t>
   </si>
   <si>
-    <t>lv3</t>
+    <t>第三关</t>
   </si>
   <si>
     <t>冰箱,智能垃圾桶,扫地机器人,滚筒洗衣机,烧水壶</t>
@@ -157,7 +170,7 @@
     <t>100,100,100,100,100</t>
   </si>
   <si>
-    <t>lv4</t>
+    <t>第四关</t>
   </si>
   <si>
     <t>冰箱,智能垃圾桶,扫地机器人,滚筒洗衣机,烧水壶,空调</t>
@@ -184,7 +197,7 @@
     <t>100,100,100,100,100,100</t>
   </si>
   <si>
-    <t>lv5</t>
+    <t>第五关</t>
   </si>
   <si>
     <t>冰箱,智能垃圾桶,扫地机器人,滚筒洗衣机,烧水壶,空调,时钟</t>
@@ -211,7 +224,7 @@
     <t>100,100,100,100,100,100,100</t>
   </si>
   <si>
-    <t>lv6</t>
+    <t>第六关</t>
   </si>
   <si>
     <t>12,2,8,4,6,10,20</t>
@@ -226,7 +239,7 @@
     <t>0.15,0.15,0.15,0.15,0.15,0.15,0.15</t>
   </si>
   <si>
-    <t>lv7</t>
+    <t>第七关</t>
   </si>
   <si>
     <t>4,10,8,14,6,2,16</t>
@@ -244,12 +257,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -266,8 +279,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,52 +289,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +334,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -350,61 +410,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,187 +432,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,6 +623,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,6 +670,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,56 +707,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,148 +728,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -876,52 +889,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -932,6 +945,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1195,7 +1215,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Configs/LevelConfig.xlsx
+++ b/Configs/LevelConfig.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="8172"/>
+    <workbookView windowWidth="23028" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>唯一标识</t>
   </si>
@@ -122,19 +109,19 @@
     <t>冰箱,智能垃圾桶,扫地机器人</t>
   </si>
   <si>
-    <t>7,3,10</t>
-  </si>
-  <si>
-    <t>10,10,10</t>
-  </si>
-  <si>
-    <t>12,12,12</t>
+    <t>3,1,5</t>
+  </si>
+  <si>
+    <t>3,3,3</t>
+  </si>
+  <si>
+    <t>4,4,4</t>
   </si>
   <si>
     <t>0,0,0</t>
   </si>
   <si>
-    <t>0.2,0.2,0.2</t>
+    <t>0.1,0.1,0.1</t>
   </si>
   <si>
     <t>50,50,50</t>
@@ -149,19 +136,19 @@
     <t>冰箱,智能垃圾桶,扫地机器人,滚筒洗衣机,烧水壶</t>
   </si>
   <si>
-    <t>11,3,7,5,9</t>
-  </si>
-  <si>
-    <t>12,12,12,12,12</t>
-  </si>
-  <si>
-    <t>15,15,15,15,15</t>
+    <t>5,1,4,2,3</t>
+  </si>
+  <si>
+    <t>3,3,3,3,3</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4</t>
   </si>
   <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
-    <t>0.18,0.18,0.18,0.18,0.18</t>
+    <t>0.08,0.08,0.08,0.08,0.08</t>
   </si>
   <si>
     <t>50,50,50,50,50</t>
@@ -176,19 +163,19 @@
     <t>冰箱,智能垃圾桶,扫地机器人,滚筒洗衣机,烧水壶,空调</t>
   </si>
   <si>
-    <t>9,3,11,9,5,7</t>
-  </si>
-  <si>
-    <t>12,12,12,12,12,12</t>
-  </si>
-  <si>
-    <t>15,15,15,15,15,15</t>
+    <t>5,1,5,2,3,4</t>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4</t>
   </si>
   <si>
     <t>0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>0.18,0.18,0.18,0.18,0.18,0.18</t>
+    <t>0.08,0.08,0.08,0.08,0.08,0.08</t>
   </si>
   <si>
     <t>50,50,50,50,50,50</t>
@@ -203,19 +190,19 @@
     <t>冰箱,智能垃圾桶,扫地机器人,滚筒洗衣机,烧水壶,空调,时钟</t>
   </si>
   <si>
-    <t>8,10,12,4,2,6,20</t>
-  </si>
-  <si>
-    <t>12,12,12,12,12,12,25</t>
-  </si>
-  <si>
-    <t>15,15,15,15,15,15,30</t>
+    <t>4,3,2,1,5,3,6</t>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3,4</t>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3,5</t>
   </si>
   <si>
     <t>0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>0.16,0.16,0.16,0.16,0.16,0.16,0.16</t>
+    <t>0.07,0.07,0.07,0.07,0.07,0.07</t>
   </si>
   <si>
     <t>60,60,60,60,60,60,60</t>
@@ -227,28 +214,19 @@
     <t>第六关</t>
   </si>
   <si>
-    <t>12,2,8,4,6,10,20</t>
-  </si>
-  <si>
-    <t>11,11,11,11,11,11,20</t>
-  </si>
-  <si>
-    <t>13,13,13,13,13,13,25</t>
-  </si>
-  <si>
-    <t>0.15,0.15,0.15,0.15,0.15,0.15,0.15</t>
+    <t>2,3,4,1,5,3,6</t>
   </si>
   <si>
     <t>第七关</t>
   </si>
   <si>
-    <t>4,10,8,14,6,2,16</t>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,20</t>
-  </si>
-  <si>
-    <t>0.14,0.14,0.14,0.14,0.14,0.14,0.14</t>
+    <t>2,1,2,1,4,3,3</t>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3,3</t>
+  </si>
+  <si>
+    <t>0.06,0.06,0.06,0.06,0.06,0.06</t>
   </si>
   <si>
     <t>90,90,90,90,90,90,90</t>
@@ -257,10 +235,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -279,24 +257,129 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,114 +393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,19 +410,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,163 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,6 +601,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -644,17 +642,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,19 +696,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,148 +706,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,52 +867,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -945,13 +923,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1215,7 +1186,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1342,25 +1313,25 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="J4">
         <v>50</v>
@@ -1377,7 +1348,7 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -1412,7 +1383,7 @@
         <v>38</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -1447,7 +1418,7 @@
         <v>47</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -1482,7 +1453,7 @@
         <v>56</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
@@ -1517,7 +1488,7 @@
         <v>65</v>
       </c>
       <c r="C9">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -1526,16 +1497,16 @@
         <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
         <v>63</v>
@@ -1546,37 +1517,37 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/LevelConfig.xlsx
+++ b/Configs/LevelConfig.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9947"/>
+    <workbookView windowWidth="16680" windowHeight="8172"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -202,7 +215,7 @@
     <t>0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>0.07,0.07,0.07,0.07,0.07,0.07</t>
+    <t>0.07,0.07,0.07,0.07,0.07,0.07,0.07</t>
   </si>
   <si>
     <t>60,60,60,60,60,60,60</t>
@@ -226,7 +239,7 @@
     <t>3,3,3,3,3,3,3</t>
   </si>
   <si>
-    <t>0.06,0.06,0.06,0.06,0.06,0.06</t>
+    <t>0.06,0.06,0.06,0.06,0.06,0.06,0.06</t>
   </si>
   <si>
     <t>90,90,90,90,90,90,90</t>
@@ -235,10 +248,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -257,16 +270,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,42 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -324,15 +325,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,12 +350,49 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -353,49 +400,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,13 +423,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,61 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,103 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,26 +614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,8 +635,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,8 +698,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,148 +719,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -867,52 +880,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -923,6 +936,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1185,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1517,7 +1537,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>

--- a/Configs/LevelConfig.xlsx
+++ b/Configs/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="8172"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>唯一标识</t>
   </si>
@@ -62,6 +62,9 @@
     <t>失控状态阈值</t>
   </si>
   <si>
+    <t>介绍台词</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>stage_3_threshold</t>
   </si>
   <si>
+    <t>introduce</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
     <t>冰箱</t>
   </si>
   <si>
+    <t>冰箱先生喜欢讲冷笑话，更喜欢有人听他讲冷笑话</t>
+  </si>
+  <si>
     <t>第二关</t>
   </si>
   <si>
@@ -143,6 +152,9 @@
     <t>100,100,100</t>
   </si>
   <si>
+    <t>垃圾桶的开合不太灵活，卡住尴尬时，记得帮他合一下盖子</t>
+  </si>
+  <si>
     <t>第三关</t>
   </si>
   <si>
@@ -170,6 +182,9 @@
     <t>100,100,100,100,100</t>
   </si>
   <si>
+    <t>扫地机器人喜欢捉迷藏，没有人来找的话，会失望的吧</t>
+  </si>
+  <si>
     <t>第四关</t>
   </si>
   <si>
@@ -197,6 +212,9 @@
     <t>100,100,100,100,100,100</t>
   </si>
   <si>
+    <t>滚筒洗衣机容易焦虑，疯狂内耗时，记得安慰一下</t>
+  </si>
+  <si>
     <t>第五关</t>
   </si>
   <si>
@@ -224,12 +242,18 @@
     <t>100,100,100,100,100,100,100</t>
   </si>
   <si>
+    <t>烧水壶喜欢发呆，有时忘了自己的工作，记得提醒一下</t>
+  </si>
+  <si>
     <t>第六关</t>
   </si>
   <si>
     <t>2,3,4,1,5,3,6</t>
   </si>
   <si>
+    <t>空调最害怕的是蟑螂，千万不要让蟑螂钻进空调！</t>
+  </si>
+  <si>
     <t>第七关</t>
   </si>
   <si>
@@ -243,6 +267,9 @@
   </si>
   <si>
     <t>90,90,90,90,90,90,90</t>
+  </si>
+  <si>
+    <t>时钟是个急性子，没人盯着的话，他会偷偷快跑</t>
   </si>
 </sst>
 </file>
@@ -864,11 +891,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,13 +966,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1203,140 +1226,151 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="13.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="13.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="16.7777777777778" customWidth="1"/>
     <col min="6" max="7" width="19.2222222222222" customWidth="1"/>
     <col min="8" max="8" width="16.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="23.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.2222222222222" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="24.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="29.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7777777777778" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.6" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="15.6" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="15.6" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="3" ht="15.6" spans="1:12">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1359,215 +1393,236 @@
       <c r="K4" s="1">
         <v>100</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
